--- a/DEWSapp/dewsdocs/DATAspeiSynoptic5.xlsx
+++ b/DEWSapp/dewsdocs/DATAspeiSynoptic5.xlsx
@@ -2104,7 +2104,7 @@
         <v>2020</v>
       </c>
       <c r="B41" t="n">
-        <v>0.5693792514011737</v>
+        <v>0.27</v>
       </c>
       <c r="C41" t="n">
         <v>0.808103473791731</v>
